--- a/artifacts/result_summary.xlsx
+++ b/artifacts/result_summary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUAN\Desktop\medical-chatbot\artifacts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B0D96-73A5-4ACB-933A-D4A3727623D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22785" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Question!$L$1:$L$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="74">
   <si>
     <t>Q1</t>
   </si>
@@ -232,13 +226,43 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>gpt-4_Hybrid_BM25_0_Chat4_Tables_Chunk-size=1000_Overlap=200_Doc=10_Max-token=6500_Stuff_19-09-2023-00-49-35</t>
+  </si>
+  <si>
+    <t>Vedolizumab:</t>
+  </si>
+  <si>
+    <t>Onizamod</t>
+  </si>
+  <si>
+    <t>Ustekinumab:</t>
+  </si>
+  <si>
+    <t>REVIEWED_gpt-4_Hybrid_Splade_0.5_Chat4_Tables_Chunk-size=1000_Overlap=200_Doc=10_Max-token=6500_Stuff_18-09-2023-22-24-50</t>
+  </si>
+  <si>
+    <t>gpt-4_Chat4_Tables_Chunk-size=1000_Overlap=200_Doc=10_Max-token=6500_Stuff_18-09-2023-23-13-09</t>
+  </si>
+  <si>
+    <t>gpt-4_Chat4_Tables_Chunk-size=2500_Overlap=500_Doc=10_Max-token=6500_Stuff_18-09-2023-23-53-15</t>
+  </si>
+  <si>
+    <t>gpt-4_Hybrid_BM25_0.5_Chat4_Tables_Chunk-size=1000_Overlap=200_Doc=10_Max-token=6500_Stuff_19-09-2023-00-22-06</t>
+  </si>
+  <si>
+    <t>Ustekinumab (UST)</t>
+  </si>
+  <si>
+    <t>TNF inhibitors (TNFi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +276,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +299,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -288,16 +336,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -393,7 +446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -570,27 +623,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="109.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="109.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -691,11 +744,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="3">
@@ -792,9 +845,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -877,9 +930,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -899,9 +952,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>48</v>
       </c>
@@ -915,11 +968,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2">
@@ -1010,9 +1063,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1098,11 +1151,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2">
@@ -1133,9 +1186,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
@@ -1164,11 +1217,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="2">
@@ -1205,9 +1258,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="2">
         <v>2</v>
       </c>
@@ -1242,11 +1295,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="2">
@@ -1283,9 +1336,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2">
         <v>2</v>
       </c>
@@ -1320,11 +1373,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="2">
@@ -1421,9 +1474,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="2">
         <v>2</v>
       </c>
@@ -1518,11 +1571,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="2">
@@ -1559,9 +1612,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2">
         <v>2</v>
       </c>
@@ -1596,11 +1649,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>7</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="2">
@@ -1694,9 +1747,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2">
         <v>2</v>
       </c>
@@ -1785,11 +1838,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="2">
@@ -1820,9 +1873,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="2">
         <v>2</v>
       </c>
@@ -1851,11 +1904,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>9</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="2">
@@ -1889,9 +1942,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2">
         <v>2</v>
       </c>
@@ -1923,11 +1976,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>10</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2">
@@ -1964,9 +2017,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2">
         <v>2</v>
       </c>
@@ -2001,8 +2054,1010 @@
         <v>34</v>
       </c>
     </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>11</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="7"/>
+      <c r="W32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="7"/>
+      <c r="W33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="34">
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A24:A25"/>
@@ -2025,6 +3080,18 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,22 +3099,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C98C75-0D27-447D-AE96-0C32957B5721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.90625" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="6"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625"/>
+    <col min="11" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.35">
@@ -2066,25 +3136,25 @@
       <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2291,7 +3361,7 @@
       <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -2334,7 +3404,7 @@
       <c r="L7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -2375,7 +3445,7 @@
       <c r="L8" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -2416,7 +3486,7 @@
       <c r="L9" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -2879,7 +3949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2919,7 +3989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2959,7 +4029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2999,7 +4069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3039,7 +4109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3079,7 +4149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3119,7 +4189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3159,7 +4229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3199,7 +4269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3237,7 +4307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3275,7 +4345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3316,7 +4386,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L31" xr:uid="{B1C98C75-0D27-447D-AE96-0C32957B5721}"/>
+  <autoFilter ref="L1:L31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>